--- a/螺纹/data_input/螺纹期货价格.xlsx
+++ b/螺纹/data_input/螺纹期货价格.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4029"/>
+  <dimension ref="A1:D4031"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52473,6 +52473,34 @@
         <v>3046</v>
       </c>
     </row>
+    <row r="4030">
+      <c r="A4030" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B4030" t="n">
+        <v>3426.8</v>
+      </c>
+      <c r="C4030" t="n">
+        <v>-326.8</v>
+      </c>
+      <c r="D4030" t="n">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="4031">
+      <c r="A4031" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B4031" t="n">
+        <v>3421</v>
+      </c>
+      <c r="C4031" t="n">
+        <v>-330</v>
+      </c>
+      <c r="D4031" t="n">
+        <v>3091</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
